--- a/output/fit_clients/fit_round_64.xlsx
+++ b/output/fit_clients/fit_round_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8812015963.893604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004724027152122841</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1096892667627855</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.003589270616231</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.1143406496038223</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.003589270616231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6026242440.172628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005947248124132304</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.570620018956017</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9101838489908181</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.570620018956017</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5585960513.064646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002694962680997206</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.444574720582244</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9802623099622454</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.444574720582244</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3218403554.259403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003926148528127332</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.640413793102828</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8425493089175079</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.640413793102828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5725452273.538073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002039091545385693</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.471637241290813</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.880487589943767</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.471637241290813</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8778426972.203741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009217968752980902</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.565263349945162</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9170807624202216</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.565263349945162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7002064412.464711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003361333434668747</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.395993413760053</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9694895838893746</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.395993413760053</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5704980798.854918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003624454163618064</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7882605324228228</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.166487921890137</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.069933318223498</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.166487921890137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4415672341.685876</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00510065116053436</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.746158642300519</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9561879579488041</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.746158642300519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3975401197.422253</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009330987633899595</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.464786169894402</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7857932988275367</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.464786169894402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8555246407.134794</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001348873676523001</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.390707261833578</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.375</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.390707261833578</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6011417820.060205</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004012857906428929</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.48801250858895</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.028862533478247</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.48801250858895</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7349266424.201702</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002640990258680448</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.991918539926844</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9052737445387207</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.991918539926844</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7971677797.348363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005619002921579568</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.399183869330785</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.003682980658663</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.399183869330785</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5348294676.136874</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004877204697878552</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.070054441402386</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9236488409840594</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.070054441402386</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5175267715.526753</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002417886684739275</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.920281661394605</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9461159905509711</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.920281661394605</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6978887051.961991</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001320933068612247</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7258382539926452</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.090769010192902</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.050417446298893</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.090769010192902</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3613999556.426482</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.0020441740066947</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.781363727699114</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9226499779107625</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.781363727699114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6220048157.296227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001245517570496576</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.652726637862705</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8622025332475516</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.652726637862705</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7984301173.992529</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004649841651456647</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.846800471863101</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8693918783271082</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.846800471863101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3970993263.764419</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003762828337093384</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.623454529188764</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7964134748560461</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.623454529188764</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8397976215.255677</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001424195430121574</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.32134192904969</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8636275793172937</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.32134192904969</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7527853008.033213</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004530457295797298</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.245543512019682</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01098092257353</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.245543512019682</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5566418421.567899</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.0033548930391752</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.198921131854596</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.947711971929621</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.198921131854596</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4322540140.940346</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00123757293197033</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6115953983867829</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.351298913297601</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.83044702303722</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.351298913297601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5417485036.081422</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003317540161201833</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.799307679432645</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9429159237446755</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.799307679432645</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6680257053.993662</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003862218559067735</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.027855886483264</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9236488409840594</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.027855886483264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7416271834.942138</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001189115051581623</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.106278485762202</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9916415019748055</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.106278485762202</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7158413442.613826</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003704373979304612</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>13</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.740200390069582</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.645401353516416</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.02237051392182</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.645401353516416</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6617831271.712288</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002538863692749737</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2185532604334005</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.669573104645103</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.4349327049644095</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.669573104645103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3679425375.850975</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001194520459395246</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.168178656047484</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9467384971713492</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.168178656047484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7915208318.195586</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002243097894389874</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3755049744569305</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.232664671065665</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.6342802503414342</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.232664671065665</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6313320143.02598</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004130707052286933</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.028192090585178</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7651486552957549</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.028192090585178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6210597195.961644</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002703736850815905</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.875013713364071</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9389413623238129</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.875013713364071</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5878312452.420249</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003148304294033821</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.997657732837658</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.032118707505437</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.997657732837658</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5221316045.349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004305234035291529</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2680223769818513</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.854321107378422</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.5854686407675846</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.854321107378422</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4177240906.934103</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005111137410989847</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.599150319864159</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9049058886363327</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.599150319864159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5147018446.211656</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002966564700106829</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.19554906475385</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.872186305771931</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.19554906475385</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5566328368.812789</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.0033700862394933</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.071402349781458</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9975135359583498</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.071402349781458</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6128645005.734152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001406605875463921</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.159570237799715</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9410395825368961</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.159570237799715</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6063567597.68913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005302871743792535</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.673039158967908</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9853966699736306</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.673039158967908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4838023414.994588</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004339250524674289</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.894902379090537</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9237875275435272</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.894902379090537</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5353058818.713449</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001660090352390292</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.716436112202741</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9430517768633181</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.716436112202741</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4837459823.14994</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.0010495396380789</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.163903392620238</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9664994772573905</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.163903392620238</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8589074418.205272</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005128622486222366</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.906215785715566</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.843491151747337</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.906215785715566</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6933497873.831797</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.00276112823737066</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.692412519509929</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.901928780018792</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.692412519509929</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7875619053.44169</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002637552465380099</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.346466104493178</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9603044511839671</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.346466104493178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4324596581.344176</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004022916088578974</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.651776225674497</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8695392186065699</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.651776225674497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7457886011.750216</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002937940453307469</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.435584496775027</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.046903337082808</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.435584496775027</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5248123417.152668</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005654576519545298</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.587428221213812</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9481174112524728</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.587428221213812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7117551692.407954</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001640881839954792</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.933679874142168</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.872186305771931</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.933679874142168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6671134651.090084</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003275175311345569</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.153633271958671</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9499256867519877</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.153633271958671</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5222495606.27787</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003426007962895807</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.516300193033301</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8505374322457053</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.516300193033301</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9032108973.636738</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002800967955353875</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8311343762984442</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.587366555939643</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.104351508312543</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.587366555939643</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4563739620.086049</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002106304749259298</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.036761170955642</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9293165515487489</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.036761170955642</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5632848585.554852</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003029598245231213</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.6384623986247</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8222083035724853</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.6384623986247</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5577784888.002413</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002745888193123986</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.69414693017174</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.371548998050025</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9035887829520503</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.371548998050025</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5112902544.177933</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002835110405197907</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.96337889355401</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.914507445022279</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.96337889355401</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5883957975.312432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003363842631045118</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.653330049452281</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8429443772988917</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.653330049452281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6286064366.675584</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005606387511887225</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.121761990227858</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9420734865882787</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.121761990227858</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4348525731.022696</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003987440906262332</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.262245754883781</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8705990193007282</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.262245754883781</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6785700588.077482</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004412938472783073</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>16</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.481869524103492</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9096771620237079</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.481869524103492</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3758952909.318802</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005450268793329353</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.960510132992681</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9041129012711325</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.960510132992681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5883822982.442484</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004006196043013683</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.131561174786611</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.008113888445369</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.131561174786611</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5045234933.928118</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003470369928157329</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.174880702808085</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9354429027845331</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.174880702808085</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5327783308.706664</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003698599884203155</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.386520160425403</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9039711962508086</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.386520160425403</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8578336299.579782</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002101517634422373</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.463036417099457</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7310106949206675</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.463036417099457</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4267961020.687067</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.00100066588604756</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.788411762035361</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.008189996057942</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.788411762035361</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5721776302.603373</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002377007092006878</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.115134110730907</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.912067335121089</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.115134110730907</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3485758384.201662</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003870231452625236</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.251546601054177</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8262792554887003</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.251546601054177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7297613147.802011</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.0017019539255135</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>14</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4187679219593748</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.677879333035311</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.8381300918585064</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.677879333035311</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5185323539.203023</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00110096059630912</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.279820954419402</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9787194093150661</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.279820954419402</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>3978437522.21762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003943467082631612</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.937205961569753</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8947719395437503</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.937205961569753</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7103162537.912165</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004445316691126232</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>14</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.764080294149452</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8705990193007282</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.764080294149452</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7512608314.545863</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002508397573236019</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.685506171754581</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.926196760548899</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.685506171754581</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5995932911.508302</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005746542675839578</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.338051682654001</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9978472526807778</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.338051682654001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6408051734.856435</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005104678959929742</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.632941490259578</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9124886122994879</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.632941490259578</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8854992251.496899</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002195215990606601</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.921706798300839</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9960743929709854</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.921706798300839</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5665798731.957676</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003028531449015465</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.816881076381195</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.964589467138159</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.816881076381195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7049446087.176145</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003331259750580324</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.413580908834005</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9887959904765679</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.413580908834005</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7803305465.692259</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004577026085031564</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7475108515088875</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.59876760510709</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.016949835932389</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.59876760510709</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10105107301.57253</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002911965566521787</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>20</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6945299366082699</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.203117793733597</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8947842038485581</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.203117793733597</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5236913093.817653</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005081507921725001</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.569534251015449</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9585157558082161</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.569534251015449</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4355341058.650761</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003463503383053248</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.326639516561727</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.894686183932675</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.326639516561727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7174473880.8029</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002679803965889583</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.85990763764344</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9855266672134788</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.85990763764344</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5091527732.605343</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001660169116126901</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>20</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.25808396726322</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9572054999620948</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.25808396726322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8744050984.774126</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003734013273533424</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.708649296781886</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8491509257788503</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.708649296781886</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5335149098.458474</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003766808642020002</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.986618293864234</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9555716071945024</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.986618293864234</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5156815806.735346</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003627858185696064</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.810538767363746</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.953371002214657</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.810538767363746</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7965747385.937063</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003705807304507303</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7620979534989992</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.005857507795048</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.9445697136016553</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.005857507795048</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4140024450.745772</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002778586299630221</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.074657114112667</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.056257056654654</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.074657114112667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5946811180.973335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001876798575880216</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>14</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.698250608632144</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9278270061890631</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.698250608632144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6856242852.169949</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001550742207906872</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.351190772933227</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.028937106372469</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.351190772933227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7404649857.925</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002729421002522872</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5701299078566673</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.072589099934442</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9073065690294023</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.072589099934442</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8494549468.525647</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003235607569637653</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>17</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.500740454823675</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9240648382189187</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.500740454823675</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6881232036.801975</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005297248737355468</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.601532800259989</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.022218343712908</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9012753240692695</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.022218343712908</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5815279740.665524</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003764267171831527</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7717435425113356</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.697785276088411</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.013820865733188</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.697785276088411</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2706178633.667052</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005903260823002856</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.8726990591135382</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.644910178602571</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.136795737432848</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.644910178602571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5671673167.539255</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003163756640713802</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.8302310721657202</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.932859835401593</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.019753409827504</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.932859835401593</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8349191977.553024</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001218283796124776</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.880968505360713</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.209390473414403</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.880968505360713</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_64.xlsx
+++ b/output/fit_clients/fit_round_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8812015963.893604</v>
+        <v>1557929967.979411</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004724027152122841</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16</v>
+        <v>0.09130322089446574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04180006334932602</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>778964920.0510671</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6026242440.172628</v>
+        <v>1682816118.737318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005947248124132304</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1132576693139015</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03891613129864563</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>14</v>
+      <c r="J3" t="n">
+        <v>841408050.1914027</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5585960513.064646</v>
+        <v>3954266634.841076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002694962680997206</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+        <v>0.1098985771163409</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03418981234099811</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1977133328.242755</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3744037762.380562</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08723737282136063</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03519463376786723</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3218403554.259403</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003926148528127332</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1872018901.749525</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5725452273.538073</v>
+        <v>2545298200.622631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002039091545385693</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.1061774478033747</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04900603028138512</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1272649070.765646</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8778426972.203741</v>
+        <v>2557166964.549886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009217968752980902</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.09391394933869107</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0367288399420261</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>20</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1278583489.70833</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7002064412.464711</v>
+        <v>3152563548.957818</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003361333434668747</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>17</v>
+        <v>0.1911324430792957</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03199673581144211</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1576281847.493169</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5704980798.854918</v>
+        <v>1406767386.721518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003624454163618064</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20</v>
+        <v>0.1866851376287906</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02514083796496454</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>703383802.1940081</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4415672341.685876</v>
+        <v>4790429767.544859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00510065116053436</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1634214902060307</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04430273914275173</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2395214966.74721</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3975401197.422253</v>
+        <v>3309945870.937138</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009330987633899595</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1832498275884537</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04444750171431203</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1654972899.951769</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8555246407.134794</v>
+        <v>2082389836.099</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001348873676523001</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18</v>
+        <v>0.1635903098198247</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0485060113580235</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1041194851.942252</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6011417820.060205</v>
+        <v>3558480387.675682</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004012857906428929</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
+        <v>0.08329304260368715</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01901227921734388</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1779240271.096808</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7349266424.201702</v>
+        <v>3590005365.075053</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002640990258680448</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15</v>
+        <v>0.1241972762715754</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04260090099320032</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1795002674.113417</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7971677797.348363</v>
+        <v>1185701574.799142</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005619002921579568</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
+        <v>0.08949784596969353</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03421041116732051</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>592850801.5450386</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5348294676.136874</v>
+        <v>2057597912.253182</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004877204697878552</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21</v>
+        <v>0.1085266413034415</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03143953983870178</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1028799026.357017</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5175267715.526753</v>
+        <v>3788183542.930264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002417886684739275</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1333628603179274</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04373624365204273</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1894091816.373443</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6978887051.961991</v>
+        <v>3994910301.297992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001320933068612247</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
+        <v>0.1765884051558448</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02527696423807639</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1997455108.772876</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3613999556.426482</v>
+        <v>840113163.877596</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0020441740066947</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1197304496314857</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02299067583498765</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>420056572.1416276</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2643427174.164318</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1064413504008775</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02252574150374286</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>508</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6220048157.296227</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.001245517570496576</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1321713544.759397</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7984301173.992529</v>
+        <v>1728440690.738758</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004649841651456647</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.07537234230264162</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04533878843679379</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>864220407.1612774</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3970993263.764419</v>
+        <v>2960374807.353411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003762828337093384</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1049550577733127</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05715771376637896</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1480187467.474738</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8397976215.255677</v>
+        <v>1103285176.016916</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001424195430121574</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
+        <v>0.1775784011458603</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04420606834347564</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>551642640.6832012</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7527853008.033213</v>
+        <v>2912846640.297264</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004530457295797298</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1449951342763341</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02452098699538257</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1456423361.124927</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5566418421.567899</v>
+        <v>1262929294.522388</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0033548930391752</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.08445006862980331</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01978263981248551</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>631464650.6374701</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4322540140.940346</v>
+        <v>1082287335.548817</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00123757293197033</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1097379100934864</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03788292582234058</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>541143659.8821558</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5417485036.081422</v>
+        <v>3813428630.587173</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003317540161201833</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1057153106176333</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02188068797833165</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1906714334.602453</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6680257053.993662</v>
+        <v>2739487023.899302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003862218559067735</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16</v>
+        <v>0.1249515078212477</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04192318663756694</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1369743500.454046</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7416271834.942138</v>
+        <v>4709324444.100571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001189115051581623</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.09292513649841461</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03791953150076041</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2354662189.633751</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7158413442.613826</v>
+        <v>1660088588.663383</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003704373979304612</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>21</v>
+        <v>0.1338179009305047</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02797332360187779</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>830044293.0031689</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6617831271.712288</v>
+        <v>1193441894.001705</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002538863692749737</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
+        <v>0.09940858888556996</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04537122243280563</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>596720899.8979601</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3679425375.850975</v>
+        <v>1833669194.653969</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001194520459395246</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0851979126776531</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03519535052376761</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>916834734.6845987</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7915208318.195586</v>
+        <v>3081238343.147048</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002243097894389874</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.1432397876224408</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03686286775584312</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1540619160.173666</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6313320143.02598</v>
+        <v>1005540464.257579</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004130707052286933</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>19</v>
+        <v>0.09410988259807286</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02723340652892562</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>502770268.9699371</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6210597195.961644</v>
+        <v>1236391077.567263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002703736850815905</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>16</v>
+        <v>0.1069371093878215</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03760956667318008</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>618195505.3994095</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5878312452.420249</v>
+        <v>2055028277.427592</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003148304294033821</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18</v>
+        <v>0.14901398015955</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02642218818224858</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1027514196.209372</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5221316045.349</v>
+        <v>2139741862.707033</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004305234035291529</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+        <v>0.09406520381573681</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02862570120971609</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>18</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1069870977.749682</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4177240906.934103</v>
+        <v>1576044023.787605</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005111137410989847</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09074313302837198</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02677437436640304</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>788022050.2950877</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5147018446.211656</v>
+        <v>2194839002.118271</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002966564700106829</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
+        <v>0.1524432648828113</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02405531785344462</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1097419465.899908</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5566328368.812789</v>
+        <v>1216768259.275367</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0033700862394933</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1525315775978848</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05075234916484386</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>608384166.6369388</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6128645005.734152</v>
+        <v>1947979892.777161</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001406605875463921</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>19</v>
+        <v>0.1360364219885366</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04256988377505475</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>973990025.5673606</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>501</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3057142991.567484</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0846980690185383</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0434887700261142</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>514</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6063567597.68913</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.005302871743792535</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>16</v>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1528571460.036407</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4838023414.994588</v>
+        <v>2117685554.003476</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004339250524674289</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.1862822257397721</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02015831807297932</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>21</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1058842863.989487</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5353058818.713449</v>
+        <v>1796340109.560554</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001660090352390292</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.06702380809476828</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03399719123026688</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>898170120.3796601</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4837459823.14994</v>
+        <v>1582873581.832808</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0010495396380789</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1715415625817805</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03521914168940249</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>791436739.6516422</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8589074418.205272</v>
+        <v>4925397812.961113</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005128622486222366</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
+        <v>0.1492485359445345</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04387040145815979</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2462698928.918857</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6933497873.831797</v>
+        <v>4684297947.606445</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00276112823737066</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.2033501729449306</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04181284003442182</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2342149011.598224</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7875619053.44169</v>
+        <v>4275321935.785533</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002637552465380099</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
+        <v>0.09837871176830776</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02939272857463694</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2137660986.175214</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4324596581.344176</v>
+        <v>1367931201.032079</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004022916088578974</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1216841744493987</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03202158700472357</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>683965652.9597025</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7457886011.750216</v>
+        <v>3430731291.61483</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002937940453307469</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1109674084582251</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04610205173388336</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1715365674.88157</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5248123417.152668</v>
+        <v>1529473904.836968</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005654576519545298</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.195324270645464</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03823880985847231</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>764736950.4830883</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7117551692.407954</v>
+        <v>4913112294.489589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001640881839954792</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16</v>
+        <v>0.09132869429910828</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06130574992012972</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2456556149.864432</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6671134651.090084</v>
+        <v>3673149221.246864</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003275175311345569</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
+        <v>0.1910533949253529</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02163098865459867</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1836574596.429981</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5222495606.27787</v>
+        <v>4629834701.908205</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003426007962895807</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1675257498141702</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0426708191736616</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2314917464.31955</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9032108973.636738</v>
+        <v>4487252288.933984</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002800967955353875</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21</v>
+        <v>0.1732861564436569</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02569808330913762</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2243626140.799259</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4563739620.086049</v>
+        <v>1441765609.534494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002106304749259298</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1042805222929687</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04116425640493284</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>720882855.5684675</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5632848585.554852</v>
+        <v>3811231228.128572</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003029598245231213</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1658099625458652</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01910887376382019</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1905615686.47403</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5577784888.002413</v>
+        <v>1603531583.651234</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002745888193123986</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1341378293760883</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03419687627584115</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>801765813.3968422</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5112902544.177933</v>
+        <v>3913453605.895744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002835110405197907</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1198273425216492</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03741504763487934</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1956726782.960878</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5883957975.312432</v>
+        <v>2930885135.451113</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003363842631045118</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1955480064085083</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02392357535918669</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1465442630.720618</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6286064366.675584</v>
+        <v>2474740851.893371</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005606387511887225</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+        <v>0.1413038468219901</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03146603641856697</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1237370455.840018</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4348525731.022696</v>
+        <v>1431389166.687506</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003987440906262332</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1908564005886494</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04581829781455909</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>715694555.9650211</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6785700588.077482</v>
+        <v>5207797593.539729</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004412938472783073</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16</v>
+        <v>0.09275740802907685</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04404669847204729</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2603898805.147326</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3758952909.318802</v>
+        <v>3484964840.736404</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005450268793329353</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1536223451777327</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0287898165194589</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1742482419.902214</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5883822982.442484</v>
+        <v>3860084876.837761</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004006196043013683</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1053276962347627</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02820650814006877</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1930042465.226728</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5045234933.928118</v>
+        <v>5069376697.556558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003470369928157329</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1457630147924468</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04773398146959994</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>19</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2534688379.558689</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5327783308.706664</v>
+        <v>2873165955.274689</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003698599884203155</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.09841536581114536</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03838502688690498</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>21</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1436583006.53778</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8578336299.579782</v>
+        <v>6022335341.607065</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002101517634422373</v>
-      </c>
-      <c r="G68" t="b">
+        <v>0.1362907918041646</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05118201306765863</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="H68" t="n">
-        <v>13</v>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3011167789.021924</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4267961020.687067</v>
+        <v>2042591840.537917</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00100066588604756</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1737562536973564</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04217471367603041</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1021295930.613672</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5721776302.603373</v>
+        <v>2688338831.451285</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002377007092006878</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.07169180451710605</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04863384633817999</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1344169372.342258</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>531</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4814639087.751736</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1207234444330763</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03050495691973572</v>
+      </c>
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>474</v>
-      </c>
-      <c r="E71" t="n">
-        <v>3485758384.201662</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.003870231452625236</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="I71" t="n">
+        <v>23</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2407319635.612011</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7297613147.802011</v>
+        <v>1468712522.470595</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0017019539255135</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>13</v>
+        <v>0.07799986619815187</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04783747379567518</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>734356293.1609648</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5185323539.203023</v>
+        <v>2784870644.003565</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00110096059630912</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.06855453310093243</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03171868847869991</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1392435337.570701</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3978437522.21762</v>
+        <v>4010210362.383629</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003943467082631612</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1589297053244598</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03105018554719753</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>22</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2005105159.125712</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7103162537.912165</v>
+        <v>1887843730.75211</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004445316691126232</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12</v>
+        <v>0.1482004972614008</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03792510373105013</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>943921840.0004609</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7512608314.545863</v>
+        <v>3864256961.032159</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002508397573236019</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>13</v>
+        <v>0.1249094391391326</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02268357021051825</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1932128459.443448</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5995932911.508302</v>
+        <v>2175729399.355978</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005746542675839578</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1392579376725558</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02157926765207964</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1087864787.01635</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6408051734.856435</v>
+        <v>3784205182.477715</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005104678959929742</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>14</v>
+        <v>0.1193487046072118</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03940363364761106</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1892102572.313063</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8854992251.496899</v>
+        <v>1467315431.411537</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002195215990606601</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13</v>
+        <v>0.1453859155803479</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02453803400159117</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>733657744.088891</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5665798731.957676</v>
+        <v>3989285555.885948</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003028531449015465</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>21</v>
+        <v>0.07583638222118988</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.034827377465554</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1994642776.777361</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7049446087.176145</v>
+        <v>3794427023.581377</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003331259750580324</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1107193732387504</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02448949915599393</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1897213467.225324</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7803305465.692259</v>
+        <v>4250096063.761638</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004577026085031564</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.2017500669803537</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01846863468217974</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2125048057.590028</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10105107301.57253</v>
+        <v>2280131973.215186</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002911965566521787</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1440156263874769</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02809865956974109</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1140066006.63453</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5236913093.817653</v>
+        <v>1880752902.694201</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005081507921725001</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>17</v>
+        <v>0.08871055079790015</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04898185125016512</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>940376473.7300235</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4355341058.650761</v>
+        <v>3370167982.515882</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003463503383053248</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1745190622273194</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03448716782729657</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1685084092.16365</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7174473880.8029</v>
+        <v>1916639075.995541</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002679803965889583</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>17</v>
+        <v>0.1550614361570879</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02035810975724908</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>958319553.9394997</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5091527732.605343</v>
+        <v>1362022862.260233</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001660169116126901</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1145603763727319</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04112534987072911</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>681011528.1499264</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2695309295.488153</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1469830739428334</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03395104668774437</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>8744050984.774126</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.003734013273533424</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>14</v>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1347654647.977277</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5335149098.458474</v>
+        <v>2879413034.74326</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003766808642020002</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>14</v>
+        <v>0.1288798452459186</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03573577991346824</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1439706564.209039</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5156815806.735346</v>
+        <v>1793614991.920453</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003627858185696064</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.1266034887998137</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04650415594499126</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>896807528.3520278</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7965747385.937063</v>
+        <v>1403846491.715638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003705807304507303</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>19</v>
+        <v>0.1253615434716353</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04876286116104934</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>701923297.4748774</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4140024450.745772</v>
+        <v>2558664577.556745</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002778586299630221</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1036133036325491</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04346389193931247</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1279332277.057459</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5946811180.973335</v>
+        <v>3444301332.083286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001876798575880216</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>22</v>
+        <v>0.09019498885879416</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03500274254935291</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>19</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1722150702.4599</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6856242852.169949</v>
+        <v>2466911793.687456</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001550742207906872</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>20</v>
+        <v>0.1671746415391718</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03785991658527684</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1233455955.924077</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7404649857.925</v>
+        <v>2161502734.791402</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002729421002522872</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1143233312222136</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04533688370681514</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>15</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1080751427.976939</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8494549468.525647</v>
+        <v>1931628263.755841</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003235607569637653</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>17</v>
+        <v>0.1290078985157737</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04101899226428795</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>965814126.0465672</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6881232036.801975</v>
+        <v>5319618416.120677</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005297248737355468</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1418170992331342</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02186042967734528</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>16</v>
+      <c r="I97" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2659809370.449014</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5815279740.665524</v>
+        <v>2585119925.108436</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003764267171831527</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>24</v>
+        <v>0.1205586577598925</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02936261076157763</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1292559918.995827</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2706178633.667052</v>
+        <v>2662621174.673886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005903260823002856</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1102648013689232</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03209747085293586</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>20</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1331310548.707605</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5671673167.539255</v>
+        <v>3777675817.15316</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003163756640713802</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>6</v>
+        <v>0.1748576439380682</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02246495572914303</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1888837961.394732</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8349191977.553024</v>
+        <v>2524883728.145526</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001218283796124776</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>21</v>
+        <v>0.1862448686057045</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05136749588730232</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>27</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1262441890.231877</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_64.xlsx
+++ b/output/fit_clients/fit_round_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1557929967.979411</v>
+        <v>2447681771.039759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09130322089446574</v>
+        <v>0.09763187535266885</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04180006334932602</v>
+        <v>0.04057928230271922</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>778964920.0510671</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1682816118.737318</v>
+        <v>1802529966.539753</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1132576693139015</v>
+        <v>0.1272118941405251</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03891613129864563</v>
+        <v>0.03258960866084448</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>841408050.1914027</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3954266634.841076</v>
+        <v>4724604653.819674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1098985771163409</v>
+        <v>0.1263542851393798</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03418981234099811</v>
+        <v>0.03456924850727876</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1977133328.242755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3744037762.380562</v>
+        <v>2622372308.283027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08723737282136063</v>
+        <v>0.09486625463799402</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03519463376786723</v>
+        <v>0.04870060471023214</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1872018901.749525</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2545298200.622631</v>
+        <v>1971641759.01212</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1061774478033747</v>
+        <v>0.1381248097444386</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04900603028138512</v>
+        <v>0.03930206808200206</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1272649070.765646</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2557166964.549886</v>
+        <v>2386836262.937698</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09391394933869107</v>
+        <v>0.07212863260715953</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0367288399420261</v>
+        <v>0.03373715386670572</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1278583489.70833</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3152563548.957818</v>
+        <v>3042111952.57189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1911324430792957</v>
+        <v>0.1329368888613665</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03199673581144211</v>
+        <v>0.02942323213448491</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1576281847.493169</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1406767386.721518</v>
+        <v>1721114603.052378</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1866851376287906</v>
+        <v>0.1581091385076345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02514083796496454</v>
+        <v>0.02900212532136737</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>703383802.1940081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4790429767.544859</v>
+        <v>5485206105.786032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1634214902060307</v>
+        <v>0.1940450050704947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04430273914275173</v>
+        <v>0.04067221054106992</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2395214966.74721</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3309945870.937138</v>
+        <v>2847257454.957272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1832498275884537</v>
+        <v>0.1607010353606693</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04444750171431203</v>
+        <v>0.04186854889202581</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1654972899.951769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2082389836.099</v>
+        <v>3183141400.763017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1635903098198247</v>
+        <v>0.1447151536452092</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0485060113580235</v>
+        <v>0.03652658759906598</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1041194851.942252</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3558480387.675682</v>
+        <v>5140886189.84796</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08329304260368715</v>
+        <v>0.07574890746798313</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01901227921734388</v>
+        <v>0.02537668607558826</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1779240271.096808</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3590005365.075053</v>
+        <v>3915075010.46232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1241972762715754</v>
+        <v>0.1550918451292898</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04260090099320032</v>
+        <v>0.03632152018469102</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1795002674.113417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1185701574.799142</v>
+        <v>1783367871.66801</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08949784596969353</v>
+        <v>0.06994268250328763</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03421041116732051</v>
+        <v>0.03085697990794589</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>592850801.5450386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2057597912.253182</v>
+        <v>2643426078.247547</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1085266413034415</v>
+        <v>0.09850889600072427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03143953983870178</v>
+        <v>0.04562970504279187</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1028799026.357017</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3788183542.930264</v>
+        <v>3571280419.527413</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1333628603179274</v>
+        <v>0.1404352549528114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04373624365204273</v>
+        <v>0.05018909760191333</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1894091816.373443</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3994910301.297992</v>
+        <v>2591015538.589902</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1765884051558448</v>
+        <v>0.1279154668249504</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02527696423807639</v>
+        <v>0.02668629760789748</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1997455108.772876</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>840113163.877596</v>
+        <v>1181187432.018956</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1197304496314857</v>
+        <v>0.1916819968947321</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02299067583498765</v>
+        <v>0.02459676528336392</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>420056572.1416276</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2643427174.164318</v>
+        <v>2308692992.336607</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1064413504008775</v>
+        <v>0.1005282328856029</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02252574150374286</v>
+        <v>0.02991188682217313</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1321713544.759397</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1728440690.738758</v>
+        <v>2599315749.827474</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07537234230264162</v>
+        <v>0.07475846050431301</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04533878843679379</v>
+        <v>0.04279414441775863</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>864220407.1612774</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2960374807.353411</v>
+        <v>2457250984.291167</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1049550577733127</v>
+        <v>0.1001721429627185</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05715771376637896</v>
+        <v>0.04811007465684278</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1480187467.474738</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1103285176.016916</v>
+        <v>1147040475.821404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1775784011458603</v>
+        <v>0.1204994520980203</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04420606834347564</v>
+        <v>0.04582524825893943</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>551642640.6832012</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2912846640.297264</v>
+        <v>3336456076.185738</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1449951342763341</v>
+        <v>0.1382414941683501</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02452098699538257</v>
+        <v>0.03581755875248066</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1456423361.124927</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1262929294.522388</v>
+        <v>1396958626.636456</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08445006862980331</v>
+        <v>0.1108285371725271</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01978263981248551</v>
+        <v>0.02158600443577545</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>631464650.6374701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1082287335.548817</v>
+        <v>1259349616.835381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1097379100934864</v>
+        <v>0.09645066590368341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03788292582234058</v>
+        <v>0.03866023469004282</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>541143659.8821558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3813428630.587173</v>
+        <v>2997709134.583562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1057153106176333</v>
+        <v>0.1089948223755823</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02188068797833165</v>
+        <v>0.01907866223710387</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1906714334.602453</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2739487023.899302</v>
+        <v>3108914764.581657</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249515078212477</v>
+        <v>0.1343933442690539</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04192318663756694</v>
+        <v>0.04986649329095857</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1369743500.454046</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4709324444.100571</v>
+        <v>5522422415.591197</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09292513649841461</v>
+        <v>0.09591036860210524</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03791953150076041</v>
+        <v>0.04028306177943764</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2354662189.633751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1660088588.663383</v>
+        <v>2234085091.698496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1338179009305047</v>
+        <v>0.1321750788948153</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02797332360187779</v>
+        <v>0.02650710297651115</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>830044293.0031689</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1193441894.001705</v>
+        <v>1113066040.892025</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09940858888556996</v>
+        <v>0.1069362824734634</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04537122243280563</v>
+        <v>0.03687385642799925</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>596720899.8979601</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1833669194.653969</v>
+        <v>1822400421.141404</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0851979126776531</v>
+        <v>0.1048053029624156</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03519535052376761</v>
+        <v>0.0332409628683304</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>916834734.6845987</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3081238343.147048</v>
+        <v>2265268686.207156</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1432397876224408</v>
+        <v>0.1896206644936672</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03686286775584312</v>
+        <v>0.03801695075862095</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1540619160.173666</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1005540464.257579</v>
+        <v>1007800627.60166</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09410988259807286</v>
+        <v>0.08470105798860653</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02723340652892562</v>
+        <v>0.02602215748972681</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>502770268.9699371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1236391077.567263</v>
+        <v>1312203332.992751</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1069371093878215</v>
+        <v>0.1046951728878633</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03760956667318008</v>
+        <v>0.03064636589849597</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>618195505.3994095</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2055028277.427592</v>
+        <v>1992799267.322379</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14901398015955</v>
+        <v>0.1557834345366164</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02642218818224858</v>
+        <v>0.02740932288867646</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1027514196.209372</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2139741862.707033</v>
+        <v>2347224585.038822</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09406520381573681</v>
+        <v>0.07666955817537097</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02862570120971609</v>
+        <v>0.0267842216384046</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>18</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1069870977.749682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1576044023.787605</v>
+        <v>1780022949.573657</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09074313302837198</v>
+        <v>0.1214266016478673</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02677437436640304</v>
+        <v>0.02601757503740909</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>788022050.2950877</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2194839002.118271</v>
+        <v>1448142092.651107</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1524432648828113</v>
+        <v>0.1816525666135073</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02405531785344462</v>
+        <v>0.02166759429216253</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1097419465.899908</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1216768259.275367</v>
+        <v>1340330014.848965</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1525315775978848</v>
+        <v>0.1189319730250496</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05075234916484386</v>
+        <v>0.04390831096302116</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>608384166.6369388</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1947979892.777161</v>
+        <v>2584300318.613167</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1360364219885366</v>
+        <v>0.1488870480475171</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04256988377505475</v>
+        <v>0.04349355372590174</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>973990025.5673606</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3057142991.567484</v>
+        <v>3763117628.935177</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0846980690185383</v>
+        <v>0.1240871800906552</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0434887700261142</v>
+        <v>0.0334982988577227</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>21</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1528571460.036407</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2117685554.003476</v>
+        <v>1924639308.135096</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1862822257397721</v>
+        <v>0.1721275076185688</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02015831807297932</v>
+        <v>0.02258634168920871</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>21</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1058842863.989487</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1796340109.560554</v>
+        <v>1769107716.520057</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06702380809476828</v>
+        <v>0.07074201114260564</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03399719123026688</v>
+        <v>0.02591438925213838</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>898170120.3796601</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1582873581.832808</v>
+        <v>1778459245.359526</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1715415625817805</v>
+        <v>0.1556502382854387</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03521914168940249</v>
+        <v>0.0546223845525958</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>791436739.6516422</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4925397812.961113</v>
+        <v>4959360878.207629</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1492485359445345</v>
+        <v>0.1143541594535814</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04387040145815979</v>
+        <v>0.05451943404954716</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2462698928.918857</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4684297947.606445</v>
+        <v>4541420147.636333</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2033501729449306</v>
+        <v>0.1957584819611621</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04181284003442182</v>
+        <v>0.04158681755017086</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2342149011.598224</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4275321935.785533</v>
+        <v>4685530011.391065</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09837871176830776</v>
+        <v>0.07229028599025435</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02939272857463694</v>
+        <v>0.03521144764090279</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2137660986.175214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1367931201.032079</v>
+        <v>1369551808.118365</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1216841744493987</v>
+        <v>0.1759406908955708</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03202158700472357</v>
+        <v>0.03555485564073833</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>683965652.9597025</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3430731291.61483</v>
+        <v>3514746965.640532</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1109674084582251</v>
+        <v>0.149797730842807</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04610205173388336</v>
+        <v>0.04685472341152292</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>22</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1715365674.88157</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1529473904.836968</v>
+        <v>1251672784.077407</v>
       </c>
       <c r="F51" t="n">
-        <v>0.195324270645464</v>
+        <v>0.1378262015523957</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03823880985847231</v>
+        <v>0.05095608682417385</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>764736950.4830883</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4913112294.489589</v>
+        <v>4637536735.373179</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09132869429910828</v>
+        <v>0.09392889372517735</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06130574992012972</v>
+        <v>0.05231907392886391</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2456556149.864432</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3673149221.246864</v>
+        <v>2731360962.52617</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1910533949253529</v>
+        <v>0.2026628103473666</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02163098865459867</v>
+        <v>0.02276596620372788</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1836574596.429981</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4629834701.908205</v>
+        <v>4076514495.974392</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1675257498141702</v>
+        <v>0.1280880775033172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0426708191736616</v>
+        <v>0.04047907184724818</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2314917464.31955</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4487252288.933984</v>
+        <v>4897233585.623358</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1732861564436569</v>
+        <v>0.1353985815965028</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02569808330913762</v>
+        <v>0.02815578472469537</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2243626140.799259</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1441765609.534494</v>
+        <v>1180561433.198308</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1042805222929687</v>
+        <v>0.132304319028527</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04116425640493284</v>
+        <v>0.03542544129569614</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>720882855.5684675</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3811231228.128572</v>
+        <v>3068263427.932699</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1658099625458652</v>
+        <v>0.1736067609435496</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01910887376382019</v>
+        <v>0.01967051556508025</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>20</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1905615686.47403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1603531583.651234</v>
+        <v>1731967307.562573</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1341378293760883</v>
+        <v>0.1310713724300136</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03419687627584115</v>
+        <v>0.03532270093236282</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>801765813.3968422</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3913453605.895744</v>
+        <v>5127144370.033427</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1198273425216492</v>
+        <v>0.1069778561091824</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03741504763487934</v>
+        <v>0.04420910000282033</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1956726782.960878</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2930885135.451113</v>
+        <v>3159800216.367746</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1955480064085083</v>
+        <v>0.2039313514612552</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02392357535918669</v>
+        <v>0.03181835452386084</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1465442630.720618</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2474740851.893371</v>
+        <v>2389292846.164261</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1413038468219901</v>
+        <v>0.1182462030018297</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03146603641856697</v>
+        <v>0.03169802325335915</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>22</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1237370455.840018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1431389166.687506</v>
+        <v>1626667921.319391</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1908564005886494</v>
+        <v>0.1237853980163553</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04581829781455909</v>
+        <v>0.03438885924202887</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>715694555.9650211</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5207797593.539729</v>
+        <v>4130073461.73581</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09275740802907685</v>
+        <v>0.1041064389663373</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04404669847204729</v>
+        <v>0.0290801691115213</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2603898805.147326</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3484964840.736404</v>
+        <v>4485985610.61629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1536223451777327</v>
+        <v>0.1463274770246956</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0287898165194589</v>
+        <v>0.03062335038550931</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>20</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1742482419.902214</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3860084876.837761</v>
+        <v>5540071962.615752</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1053276962347627</v>
+        <v>0.1627024799417181</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02820650814006877</v>
+        <v>0.02387619906062039</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1930042465.226728</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5069376697.556558</v>
+        <v>5401970842.587786</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1457630147924468</v>
+        <v>0.1174673558541697</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04773398146959994</v>
+        <v>0.03107694863509999</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2534688379.558689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2873165955.274689</v>
+        <v>2696658869.787655</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09841536581114536</v>
+        <v>0.09720436182891218</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03838502688690498</v>
+        <v>0.04058027387222941</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>21</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1436583006.53778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6022335341.607065</v>
+        <v>5471846201.194832</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1362907918041646</v>
+        <v>0.1378850334454404</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05118201306765863</v>
+        <v>0.0462245925007127</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3011167789.021924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2042591840.537917</v>
+        <v>2395611848.439306</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1737562536973564</v>
+        <v>0.1398258146327538</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04217471367603041</v>
+        <v>0.04977788966841735</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1021295930.613672</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2688338831.451285</v>
+        <v>3455347320.761492</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07169180451710605</v>
+        <v>0.06768668346548627</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04863384633817999</v>
+        <v>0.0427573136479148</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1344169372.342258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4814639087.751736</v>
+        <v>4872267697.303274</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1207234444330763</v>
+        <v>0.1752853855253011</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03050495691973572</v>
+        <v>0.02073895929998295</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>23</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2407319635.612011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1468712522.470595</v>
+        <v>1952557192.481848</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07799986619815187</v>
+        <v>0.06720775607739166</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04783747379567518</v>
+        <v>0.04210183198875964</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>734356293.1609648</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2784870644.003565</v>
+        <v>2886514179.471255</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06855453310093243</v>
+        <v>0.1040062947015032</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03171868847869991</v>
+        <v>0.03712077112560502</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>24</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1392435337.570701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4010210362.383629</v>
+        <v>3715147148.518209</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1589297053244598</v>
+        <v>0.1816188370907873</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03105018554719753</v>
+        <v>0.03326071704373433</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>22</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2005105159.125712</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1887843730.75211</v>
+        <v>1544320068.868171</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1482004972614008</v>
+        <v>0.1570932556911544</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03792510373105013</v>
+        <v>0.03291703802254593</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>943921840.0004609</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3864256961.032159</v>
+        <v>3412773762.208526</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1249094391391326</v>
+        <v>0.09866340376272244</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02268357021051825</v>
+        <v>0.03110301371659405</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1932128459.443448</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2175729399.355978</v>
+        <v>1647688413.469915</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1392579376725558</v>
+        <v>0.1472559627923914</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02157926765207964</v>
+        <v>0.02755440350878734</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1087864787.01635</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3784205182.477715</v>
+        <v>3327680629.913025</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1193487046072118</v>
+        <v>0.1108170195245637</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03940363364761106</v>
+        <v>0.05526935607384047</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1892102572.313063</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1467315431.411537</v>
+        <v>1873914100.951858</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1453859155803479</v>
+        <v>0.1750259571728864</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02453803400159117</v>
+        <v>0.03901809419501282</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>733657744.088891</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3989285555.885948</v>
+        <v>4375095208.21736</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07583638222118988</v>
+        <v>0.1056971269681106</v>
       </c>
       <c r="G80" t="n">
-        <v>0.034827377465554</v>
+        <v>0.03553153372729265</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1994642776.777361</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3794427023.581377</v>
+        <v>4476312702.527612</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1107193732387504</v>
+        <v>0.09220622575491637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02448949915599393</v>
+        <v>0.02166458479725626</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1897213467.225324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4250096063.761638</v>
+        <v>4806792420.499949</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2017500669803537</v>
+        <v>0.1874303351470733</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01846863468217974</v>
+        <v>0.02280792500162168</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2125048057.590028</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2280131973.215186</v>
+        <v>2082496278.090371</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1440156263874769</v>
+        <v>0.1204908420223217</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02809865956974109</v>
+        <v>0.03876092621061195</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1140066006.63453</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1880752902.694201</v>
+        <v>1601007637.271433</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08871055079790015</v>
+        <v>0.1141867716081857</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04898185125016512</v>
+        <v>0.04699699699972384</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>940376473.7300235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3370167982.515882</v>
+        <v>3384191659.586109</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1745190622273194</v>
+        <v>0.1117504801472893</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03448716782729657</v>
+        <v>0.05164181037998151</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1685084092.16365</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1916639075.995541</v>
+        <v>2548085469.770866</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1550614361570879</v>
+        <v>0.1239118630361499</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02035810975724908</v>
+        <v>0.02144704291664341</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>958319553.9394997</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1362022862.260233</v>
+        <v>1187470377.536767</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1145603763727319</v>
+        <v>0.168722525883178</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04112534987072911</v>
+        <v>0.03273015062333857</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>681011528.1499264</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2695309295.488153</v>
+        <v>2273706383.450542</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1469830739428334</v>
+        <v>0.1393408096733217</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03395104668774437</v>
+        <v>0.02534763167396586</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>25</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1347654647.977277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2879413034.74326</v>
+        <v>2452976123.803511</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1288798452459186</v>
+        <v>0.1185581767772077</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03573577991346824</v>
+        <v>0.03210097497502411</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>22</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1439706564.209039</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1793614991.920453</v>
+        <v>1353414969.569625</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1266034887998137</v>
+        <v>0.09030008343907747</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04650415594499126</v>
+        <v>0.03400712801641634</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>896807528.3520278</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1403846491.715638</v>
+        <v>1983981463.620991</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1253615434716353</v>
+        <v>0.1786811100976319</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04876286116104934</v>
+        <v>0.03741918885159607</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>701923297.4748774</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2558664577.556745</v>
+        <v>2261987144.922346</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1036133036325491</v>
+        <v>0.08107110577638746</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04346389193931247</v>
+        <v>0.04436618375392559</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1279332277.057459</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3444301332.083286</v>
+        <v>4964680436.924524</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09019498885879416</v>
+        <v>0.09584957155978879</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03500274254935291</v>
+        <v>0.04109533008615195</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1722150702.4599</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2466911793.687456</v>
+        <v>2015363353.6628</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1671746415391718</v>
+        <v>0.1263394223036685</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03785991658527684</v>
+        <v>0.0387283463372134</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1233455955.924077</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2161502734.791402</v>
+        <v>2166199250.136343</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1143233312222136</v>
+        <v>0.1271610533128465</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04533688370681514</v>
+        <v>0.04808524162738503</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1080751427.976939</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1931628263.755841</v>
+        <v>2339688516.983227</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1290078985157737</v>
+        <v>0.1062046506545998</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04101899226428795</v>
+        <v>0.03246647781023272</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>965814126.0465672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5319618416.120677</v>
+        <v>3845085320.491027</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1418170992331342</v>
+        <v>0.172723708488981</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02186042967734528</v>
+        <v>0.02825341672273522</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>20</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2659809370.449014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2585119925.108436</v>
+        <v>2471593883.13389</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1205586577598925</v>
+        <v>0.08838223938384626</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02936261076157763</v>
+        <v>0.0320041646619683</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1292559918.995827</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2662621174.673886</v>
+        <v>3325438206.417342</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1102648013689232</v>
+        <v>0.1225079006648072</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03209747085293586</v>
+        <v>0.02203234386017019</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>20</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1331310548.707605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3777675817.15316</v>
+        <v>3698468774.794676</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1748576439380682</v>
+        <v>0.1713482305804444</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02246495572914303</v>
+        <v>0.0277754845208474</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>19</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1888837961.394732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2524883728.145526</v>
+        <v>3165356781.430377</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1862448686057045</v>
+        <v>0.1385325660068416</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05136749588730232</v>
+        <v>0.05739684592695563</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>27</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1262441890.231877</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_64.xlsx
+++ b/output/fit_clients/fit_round_64.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2447681771.039759</v>
+        <v>1869885705.7459</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09763187535266885</v>
+        <v>0.09335276071345976</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04057928230271922</v>
+        <v>0.03909592726068368</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1802529966.539753</v>
+        <v>2589099673.384788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1272118941405251</v>
+        <v>0.1156464818897562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03258960866084448</v>
+        <v>0.04360007714359391</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4724604653.819674</v>
+        <v>4749962905.177448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1263542851393798</v>
+        <v>0.1540529580024854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03456924850727876</v>
+        <v>0.02986852417249636</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2622372308.283027</v>
+        <v>3405922687.5624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09486625463799402</v>
+        <v>0.06876222616543068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04870060471023214</v>
+        <v>0.04048713437345445</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1971641759.01212</v>
+        <v>2302480188.238946</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1381248097444386</v>
+        <v>0.1478275271812063</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03930206808200206</v>
+        <v>0.03431456644826786</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2386836262.937698</v>
+        <v>2614493038.232875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07212863260715953</v>
+        <v>0.07285251036811721</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03373715386670572</v>
+        <v>0.04320921283537021</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3042111952.57189</v>
+        <v>3472307750.563159</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1329368888613665</v>
+        <v>0.1388902039818768</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02942323213448491</v>
+        <v>0.02939292586735169</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1721114603.052378</v>
+        <v>1458634597.468534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1581091385076345</v>
+        <v>0.1650059702461346</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02900212532136737</v>
+        <v>0.03202820939630924</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5485206105.786032</v>
+        <v>3666215420.729093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1940450050704947</v>
+        <v>0.1780386994028514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04067221054106992</v>
+        <v>0.03810069837925568</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2847257454.957272</v>
+        <v>4000974154.238778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1607010353606693</v>
+        <v>0.156066499975271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04186854889202581</v>
+        <v>0.04862885751060585</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3183141400.763017</v>
+        <v>2291184453.461268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1447151536452092</v>
+        <v>0.1415787181601411</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03652658759906598</v>
+        <v>0.04918580774559726</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5140886189.84796</v>
+        <v>4390003801.657054</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07574890746798313</v>
+        <v>0.06346475703842526</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02537668607558826</v>
+        <v>0.01989707946224783</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3915075010.46232</v>
+        <v>3626647173.885067</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1550918451292898</v>
+        <v>0.1155928037325001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03632152018469102</v>
+        <v>0.04386260749708999</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1783367871.66801</v>
+        <v>1188857490.02702</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06994268250328763</v>
+        <v>0.08879241902674602</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03085697990794589</v>
+        <v>0.04815297202446057</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2643426078.247547</v>
+        <v>2557646459.758991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09850889600072427</v>
+        <v>0.09971195866028343</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04562970504279187</v>
+        <v>0.03475470158316599</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3571280419.527413</v>
+        <v>5219668129.254944</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1404352549528114</v>
+        <v>0.1133613587684839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05018909760191333</v>
+        <v>0.04823574698363849</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2591015538.589902</v>
+        <v>2423532299.423942</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1279154668249504</v>
+        <v>0.1144985516096814</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02668629760789748</v>
+        <v>0.02823282775559835</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1181187432.018956</v>
+        <v>953820143.8937796</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1916819968947321</v>
+        <v>0.1917384844078574</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02459676528336392</v>
+        <v>0.02746088053265167</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2308692992.336607</v>
+        <v>2014661997.923192</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1005282328856029</v>
+        <v>0.1364621204825759</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02991188682217313</v>
+        <v>0.02247830434366676</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2599315749.827474</v>
+        <v>2405579830.020763</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07475846050431301</v>
+        <v>0.1009037261305306</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04279414441775863</v>
+        <v>0.02966423886142731</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2457250984.291167</v>
+        <v>2600841350.433326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1001721429627185</v>
+        <v>0.1446098847892956</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04811007465684278</v>
+        <v>0.05458178238637238</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1147040475.821404</v>
+        <v>1120149196.450553</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1204994520980203</v>
+        <v>0.1242975965589631</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04582524825893943</v>
+        <v>0.0464887973626626</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3336456076.185738</v>
+        <v>2553086013.169118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1382414941683501</v>
+        <v>0.1272963586421608</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03581755875248066</v>
+        <v>0.02709588238297915</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1396958626.636456</v>
+        <v>916580593.296442</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1108285371725271</v>
+        <v>0.101332743357382</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02158600443577545</v>
+        <v>0.01994417951862704</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1259349616.835381</v>
+        <v>1280476100.888726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09645066590368341</v>
+        <v>0.08221963475457068</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03866023469004282</v>
+        <v>0.02643082020029183</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2997709134.583562</v>
+        <v>3248079784.57848</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1089948223755823</v>
+        <v>0.1036207125222051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01907866223710387</v>
+        <v>0.0243665310332914</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3108914764.581657</v>
+        <v>3039114711.264631</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1343933442690539</v>
+        <v>0.1287007583406778</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04986649329095857</v>
+        <v>0.03644466940465362</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5522422415.591197</v>
+        <v>5886202659.105707</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09591036860210524</v>
+        <v>0.1253449103789917</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04028306177943764</v>
+        <v>0.03744092439225084</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2234085091.698496</v>
+        <v>1578734532.933781</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1321750788948153</v>
+        <v>0.131603909341033</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02650710297651115</v>
+        <v>0.03737243069026069</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1113066040.892025</v>
+        <v>1219939325.48182</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1069362824734634</v>
+        <v>0.08102146669570483</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03687385642799925</v>
+        <v>0.04067342414350647</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1822400421.141404</v>
+        <v>1632274998.461722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1048053029624156</v>
+        <v>0.08171838144570175</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0332409628683304</v>
+        <v>0.02335530423474144</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2265268686.207156</v>
+        <v>2451963630.121497</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1896206644936672</v>
+        <v>0.1492947119227567</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03801695075862095</v>
+        <v>0.04773335952031205</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1007800627.60166</v>
+        <v>1562123881.107773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08470105798860653</v>
+        <v>0.08560131245355515</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02602215748972681</v>
+        <v>0.01714091914653848</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1312203332.992751</v>
+        <v>880848488.3079293</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1046951728878633</v>
+        <v>0.09328103158558487</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03064636589849597</v>
+        <v>0.02756012628882991</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1992799267.322379</v>
+        <v>2356213128.838881</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1557834345366164</v>
+        <v>0.1193946714388889</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02740932288867646</v>
+        <v>0.01811815075680812</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2347224585.038822</v>
+        <v>2510243347.842439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07666955817537097</v>
+        <v>0.1000606070283836</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0267842216384046</v>
+        <v>0.03228190530541572</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1780022949.573657</v>
+        <v>1775874865.542827</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1214266016478673</v>
+        <v>0.1062160411924118</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02601757503740909</v>
+        <v>0.03446411110346905</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1448142092.651107</v>
+        <v>1607459614.738541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1816525666135073</v>
+        <v>0.1450095785465011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02166759429216253</v>
+        <v>0.02659787210001868</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1340330014.848965</v>
+        <v>1560840953.230601</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1189319730250496</v>
+        <v>0.1589514820093036</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04390831096302116</v>
+        <v>0.05302137312974418</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2584300318.613167</v>
+        <v>2788469314.638385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1488870480475171</v>
+        <v>0.1330919140610351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04349355372590174</v>
+        <v>0.04160860228422802</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3763117628.935177</v>
+        <v>3955958151.785079</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1240871800906552</v>
+        <v>0.1233544851201026</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0334982988577227</v>
+        <v>0.02852161983604589</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1924639308.135096</v>
+        <v>2327239051.600142</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1721275076185688</v>
+        <v>0.1865960196434868</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02258634168920871</v>
+        <v>0.02279895390058534</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1769107716.520057</v>
+        <v>2242935677.486214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07074201114260564</v>
+        <v>0.09547335708208388</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02591438925213838</v>
+        <v>0.02339216572423468</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1778459245.359526</v>
+        <v>1715464062.610808</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1556502382854387</v>
+        <v>0.1619137781744934</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0546223845525958</v>
+        <v>0.04585367240386275</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4959360878.207629</v>
+        <v>5061459428.199105</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1143541594535814</v>
+        <v>0.1521764537749423</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05451943404954716</v>
+        <v>0.04637059159887298</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4541420147.636333</v>
+        <v>3589564777.894601</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1957584819611621</v>
+        <v>0.1652385389717628</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04158681755017086</v>
+        <v>0.05536817358073434</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4685530011.391065</v>
+        <v>4221855560.502087</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07229028599025435</v>
+        <v>0.0719197090631877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03521144764090279</v>
+        <v>0.02996467359290656</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1369551808.118365</v>
+        <v>1770413154.589742</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1759406908955708</v>
+        <v>0.1648043109187512</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03555485564073833</v>
+        <v>0.03595181558104653</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3514746965.640532</v>
+        <v>2748019390.648329</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149797730842807</v>
+        <v>0.1419716804747462</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04685472341152292</v>
+        <v>0.05226237907140956</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1251672784.077407</v>
+        <v>966116474.7878768</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1378262015523957</v>
+        <v>0.1265667140317515</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05095608682417385</v>
+        <v>0.05438402615694596</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4637536735.373179</v>
+        <v>5087293813.123267</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09392889372517735</v>
+        <v>0.1122678250921127</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05231907392886391</v>
+        <v>0.05735882766470114</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2731360962.52617</v>
+        <v>3620826477.548068</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2026628103473666</v>
+        <v>0.1505724406837321</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02276596620372788</v>
+        <v>0.02690031154843127</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4076514495.974392</v>
+        <v>3497263585.136602</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1280880775033172</v>
+        <v>0.1405367717531811</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04047907184724818</v>
+        <v>0.04025148647432327</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4897233585.623358</v>
+        <v>4870093233.607411</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1353985815965028</v>
+        <v>0.195137537519766</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02815578472469537</v>
+        <v>0.02071767434488903</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1180561433.198308</v>
+        <v>1676992775.115993</v>
       </c>
       <c r="F56" t="n">
-        <v>0.132304319028527</v>
+        <v>0.1073350176405404</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03542544129569614</v>
+        <v>0.03682969957851513</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3068263427.932699</v>
+        <v>4429761109.716065</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1736067609435496</v>
+        <v>0.1738623062099242</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01967051556508025</v>
+        <v>0.02654500363683587</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1731967307.562573</v>
+        <v>1791022574.347169</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1310713724300136</v>
+        <v>0.13705750253583</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03532270093236282</v>
+        <v>0.02992843452836068</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5127144370.033427</v>
+        <v>5210185115.032773</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1069778561091824</v>
+        <v>0.1014142762965215</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04420910000282033</v>
+        <v>0.04389218992985894</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3159800216.367746</v>
+        <v>2879210304.687219</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2039313514612552</v>
+        <v>0.2026366487241574</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03181835452386084</v>
+        <v>0.02861849506409379</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2389292846.164261</v>
+        <v>2182892588.683956</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1182462030018297</v>
+        <v>0.1204946130047758</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03169802325335915</v>
+        <v>0.02417241280470519</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1626667921.319391</v>
+        <v>1649794965.3018</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1237853980163553</v>
+        <v>0.1940275123776238</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03438885924202887</v>
+        <v>0.03137935367399047</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4130073461.73581</v>
+        <v>5201975679.006103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1041064389663373</v>
+        <v>0.09771599993421304</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0290801691115213</v>
+        <v>0.02968930152014737</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4485985610.61629</v>
+        <v>5037201262.382842</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1463274770246956</v>
+        <v>0.150147935513149</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03062335038550931</v>
+        <v>0.03174269834070464</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5540071962.615752</v>
+        <v>5416771395.37056</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1627024799417181</v>
+        <v>0.1266260850645702</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02387619906062039</v>
+        <v>0.0311234516264647</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5401970842.587786</v>
+        <v>4070416997.759943</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1174673558541697</v>
+        <v>0.1565498872906114</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03107694863509999</v>
+        <v>0.03533298001689528</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2696658869.787655</v>
+        <v>2891650539.674315</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09720436182891218</v>
+        <v>0.08093651518767897</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04058027387222941</v>
+        <v>0.03475153156257337</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5471846201.194832</v>
+        <v>5144699660.553952</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1378850334454404</v>
+        <v>0.1386395449246814</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0462245925007127</v>
+        <v>0.04977588305027566</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2395611848.439306</v>
+        <v>1647677438.534002</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1398258146327538</v>
+        <v>0.1624512224578111</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04977788966841735</v>
+        <v>0.0426792153659406</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3455347320.761492</v>
+        <v>2752575977.074706</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06768668346548627</v>
+        <v>0.06633135197506629</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0427573136479148</v>
+        <v>0.04401226757725581</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4872267697.303274</v>
+        <v>3605968106.295028</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1752853855253011</v>
+        <v>0.1760674968364361</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02073895929998295</v>
+        <v>0.02664916173675727</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1952557192.481848</v>
+        <v>1806787209.014402</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06720775607739166</v>
+        <v>0.08111750212661509</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04210183198875964</v>
+        <v>0.04557832071838246</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2886514179.471255</v>
+        <v>2775215082.541899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1040062947015032</v>
+        <v>0.07055337058226813</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03712077112560502</v>
+        <v>0.05010884019820407</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3715147148.518209</v>
+        <v>2872520441.948034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1816188370907873</v>
+        <v>0.1144344830105826</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03326071704373433</v>
+        <v>0.02318135145162125</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1544320068.868171</v>
+        <v>2334051951.152486</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1570932556911544</v>
+        <v>0.1379579327521364</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03291703802254593</v>
+        <v>0.02787039772667652</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3412773762.208526</v>
+        <v>3331694579.629389</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09866340376272244</v>
+        <v>0.1183648987818974</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03110301371659405</v>
+        <v>0.02134517415585722</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1647688413.469915</v>
+        <v>1644557176.087522</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1472559627923914</v>
+        <v>0.1588171168184395</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02755440350878734</v>
+        <v>0.02234272367024175</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3327680629.913025</v>
+        <v>3730973826.727859</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1108170195245637</v>
+        <v>0.1213117842556913</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05526935607384047</v>
+        <v>0.05374777087009093</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1873914100.951858</v>
+        <v>1637407248.601021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750259571728864</v>
+        <v>0.1663360285346029</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03901809419501282</v>
+        <v>0.03192367636549765</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4375095208.21736</v>
+        <v>5184997328.372463</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1056971269681106</v>
+        <v>0.07064935959697115</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03553153372729265</v>
+        <v>0.02674557634726265</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4476312702.527612</v>
+        <v>3759099007.923211</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09220622575491637</v>
+        <v>0.1291153583034462</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02166458479725626</v>
+        <v>0.02664164701240052</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4806792420.499949</v>
+        <v>3866622211.710127</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1874303351470733</v>
+        <v>0.1529097860499667</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02280792500162168</v>
+        <v>0.02584429480631857</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2082496278.090371</v>
+        <v>2010974748.373707</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1204908420223217</v>
+        <v>0.1410058744580746</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03876092621061195</v>
+        <v>0.04086305996988152</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1601007637.271433</v>
+        <v>1969990390.976834</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1141867716081857</v>
+        <v>0.08751024167241818</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04699699699972384</v>
+        <v>0.04751548858287159</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3384191659.586109</v>
+        <v>2402287327.289118</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1117504801472893</v>
+        <v>0.126796620291589</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05164181037998151</v>
+        <v>0.04053620214685819</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2548085469.770866</v>
+        <v>2621616760.981318</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1239118630361499</v>
+        <v>0.1356026714396384</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02144704291664341</v>
+        <v>0.02643039418636017</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1187470377.536767</v>
+        <v>1109536333.963818</v>
       </c>
       <c r="F87" t="n">
-        <v>0.168722525883178</v>
+        <v>0.1685664608018969</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03273015062333857</v>
+        <v>0.03107406527341329</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2273706383.450542</v>
+        <v>3289803295.128979</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1393408096733217</v>
+        <v>0.1264896853437907</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02534763167396586</v>
+        <v>0.03106906229605293</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2452976123.803511</v>
+        <v>2249767945.11086</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1185581767772077</v>
+        <v>0.1058132607938455</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03210097497502411</v>
+        <v>0.0259876506970095</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1353414969.569625</v>
+        <v>1437745086.00358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09030008343907747</v>
+        <v>0.1346721400871798</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03400712801641634</v>
+        <v>0.04633394777299536</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1983981463.620991</v>
+        <v>1505176103.40504</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1786811100976319</v>
+        <v>0.1671466115827006</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03741918885159607</v>
+        <v>0.04569521227491637</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2261987144.922346</v>
+        <v>2424193225.647799</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08107110577638746</v>
+        <v>0.07685912143557466</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04436618375392559</v>
+        <v>0.04607884045530586</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4964680436.924524</v>
+        <v>3848518031.294245</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09584957155978879</v>
+        <v>0.1313782032752318</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04109533008615195</v>
+        <v>0.05301645471180737</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2015363353.6628</v>
+        <v>2278686883.837343</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1263394223036685</v>
+        <v>0.1062870299985042</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0387283463372134</v>
+        <v>0.0321676783118198</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2166199250.136343</v>
+        <v>2541540575.705241</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1271610533128465</v>
+        <v>0.1043088561320291</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04808524162738503</v>
+        <v>0.0520967088222315</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2339688516.983227</v>
+        <v>2276084970.988443</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062046506545998</v>
+        <v>0.1057779910792409</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03246647781023272</v>
+        <v>0.04438956792780607</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3845085320.491027</v>
+        <v>4348536538.97562</v>
       </c>
       <c r="F97" t="n">
-        <v>0.172723708488981</v>
+        <v>0.1192473714438041</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02825341672273522</v>
+        <v>0.0261925557963373</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2471593883.13389</v>
+        <v>3105198161.837146</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08838223938384626</v>
+        <v>0.1173194247980851</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0320041646619683</v>
+        <v>0.02586567144055048</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3325438206.417342</v>
+        <v>2537662580.293999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1225079006648072</v>
+        <v>0.1391307084188195</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02203234386017019</v>
+        <v>0.02756176039854684</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3698468774.794676</v>
+        <v>3214588434.572301</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1713482305804444</v>
+        <v>0.1232648593993386</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0277754845208474</v>
+        <v>0.02336935840858339</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3165356781.430377</v>
+        <v>2318738286.273182</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1385325660068416</v>
+        <v>0.1394216611898311</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05739684592695563</v>
+        <v>0.04844564073341256</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_64.xlsx
+++ b/output/fit_clients/fit_round_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1869885705.7459</v>
+        <v>1673670823.279768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09335276071345976</v>
+        <v>0.1049964860457477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03909592726068368</v>
+        <v>0.03531004394147602</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2589099673.384788</v>
+        <v>1651015700.256354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1156464818897562</v>
+        <v>0.1271464291395594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04360007714359391</v>
+        <v>0.04425743007668229</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4749962905.177448</v>
+        <v>4162432836.460091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1540529580024854</v>
+        <v>0.1142898250839936</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02986852417249636</v>
+        <v>0.03416099233172717</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>190.6163928776696</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3405922687.5624</v>
+        <v>4131485270.565223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06876222616543068</v>
+        <v>0.09583302322263257</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04048713437345445</v>
+        <v>0.03714021879560641</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>203.3270024854373</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2302480188.238946</v>
+        <v>2060248221.638199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1478275271812063</v>
+        <v>0.1176044447812267</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03431456644826786</v>
+        <v>0.04852108480850689</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2614493038.232875</v>
+        <v>1989214522.900389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07285251036811721</v>
+        <v>0.09592238027492343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04320921283537021</v>
+        <v>0.03960520159199798</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3472307750.563159</v>
+        <v>3540088264.269615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1388902039818768</v>
+        <v>0.1680363943315276</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02939292586735169</v>
+        <v>0.03256857276736105</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63</v>
+      </c>
+      <c r="K8" t="n">
+        <v>154.2157115405033</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1458634597.468534</v>
+        <v>1859252414.4079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1650059702461346</v>
+        <v>0.1865188881924084</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03202820939630924</v>
+        <v>0.0336874680747528</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3666215420.729093</v>
+        <v>4997701439.844913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1780386994028514</v>
+        <v>0.1702613286762135</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03810069837925568</v>
+        <v>0.03385683642093285</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>59</v>
+      </c>
+      <c r="J10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K10" t="n">
+        <v>211.8192270261869</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4000974154.238778</v>
+        <v>4071380313.433922</v>
       </c>
       <c r="F11" t="n">
-        <v>0.156066499975271</v>
+        <v>0.1744870162926825</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04862885751060585</v>
+        <v>0.03364526066169828</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2291184453.461268</v>
+        <v>2233253060.733354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1415787181601411</v>
+        <v>0.1335789128900335</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04918580774559726</v>
+        <v>0.04217322594201284</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4390003801.657054</v>
+        <v>3405946099.437734</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06346475703842526</v>
+        <v>0.0989035250267786</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01989707946224783</v>
+        <v>0.01974476792881298</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>149.2365177021102</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +931,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3626647173.885067</v>
+        <v>2935291254.531681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1155928037325001</v>
+        <v>0.1212197225222172</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04386260749708999</v>
+        <v>0.03515368652721477</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1188857490.02702</v>
+        <v>1338916279.202307</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08879241902674602</v>
+        <v>0.07662153995672788</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04815297202446057</v>
+        <v>0.04177397205727239</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2557646459.758991</v>
+        <v>2685759933.38403</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09971195866028343</v>
+        <v>0.1111892843008616</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03475470158316599</v>
+        <v>0.03614135084323269</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5219668129.254944</v>
+        <v>3331838718.551933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1133613587684839</v>
+        <v>0.134535782215869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04823574698363849</v>
+        <v>0.0362631495135626</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>63</v>
+      </c>
+      <c r="K17" t="n">
+        <v>128.3082674681035</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2423532299.423942</v>
+        <v>2684563810.410702</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1144985516096814</v>
+        <v>0.1792599138307297</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02823282775559835</v>
+        <v>0.03208225996078808</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>61</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>953820143.8937796</v>
+        <v>1170494195.270124</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1917384844078574</v>
+        <v>0.1906395002375158</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02746088053265167</v>
+        <v>0.02236743767322423</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2014661997.923192</v>
+        <v>2363546353.509578</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1364621204825759</v>
+        <v>0.1535065078761851</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02247830434366676</v>
+        <v>0.01968506061227621</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2405579830.020763</v>
+        <v>2664930582.725333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1009037261305306</v>
+        <v>0.08302307364526863</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02966423886142731</v>
+        <v>0.02901497618315668</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2600841350.433326</v>
+        <v>3221024460.016032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1446098847892956</v>
+        <v>0.1086604779189621</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05458178238637238</v>
+        <v>0.05698852904651974</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>62</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1120149196.450553</v>
+        <v>1300572646.823337</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1242975965589631</v>
+        <v>0.1629258539091299</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0464887973626626</v>
+        <v>0.03646099230830272</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2553086013.169118</v>
+        <v>4027300983.034497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1272963586421608</v>
+        <v>0.09293122033878173</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02709588238297915</v>
+        <v>0.02526442039968425</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>916580593.296442</v>
+        <v>1283253005.744824</v>
       </c>
       <c r="F25" t="n">
-        <v>0.101332743357382</v>
+        <v>0.1100494594541391</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01994417951862704</v>
+        <v>0.02520745056644624</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1280476100.888726</v>
+        <v>984697243.2883968</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08221963475457068</v>
+        <v>0.08850914160214142</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02643082020029183</v>
+        <v>0.02839390708873243</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3248079784.57848</v>
+        <v>3848280447.015715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1036207125222051</v>
+        <v>0.126815575822902</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0243665310332914</v>
+        <v>0.01971238447601743</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>64</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3039114711.264631</v>
+        <v>3096715596.173855</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1287007583406778</v>
+        <v>0.1260100267720705</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03644466940465362</v>
+        <v>0.04291963747894304</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17</v>
+      </c>
+      <c r="J28" t="n">
+        <v>63</v>
+      </c>
+      <c r="K28" t="n">
+        <v>124.9358953641512</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5886202659.105707</v>
+        <v>3847632315.319602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253449103789917</v>
+        <v>0.09948395954016266</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03744092439225084</v>
+        <v>0.03947695771238525</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>58</v>
+      </c>
+      <c r="J29" t="n">
+        <v>64</v>
+      </c>
+      <c r="K29" t="n">
+        <v>219.6430986364818</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1578734532.933781</v>
+        <v>2156489202.849357</v>
       </c>
       <c r="F30" t="n">
-        <v>0.131603909341033</v>
+        <v>0.09319776072491384</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03737243069026069</v>
+        <v>0.03041022286336164</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1219939325.48182</v>
+        <v>984439569.5977607</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08102146669570483</v>
+        <v>0.10661597327861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04067342414350647</v>
+        <v>0.04584849407050277</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1632274998.461722</v>
+        <v>1618433185.178621</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08171838144570175</v>
+        <v>0.08141560216057364</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02335530423474144</v>
+        <v>0.02888450918475081</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2451963630.121497</v>
+        <v>2716279564.156832</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1492947119227567</v>
+        <v>0.1693313969141009</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04773335952031205</v>
+        <v>0.03813853170172559</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562123881.107773</v>
+        <v>1224253229.828492</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08560131245355515</v>
+        <v>0.09974518087217041</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01714091914653848</v>
+        <v>0.01827497914532897</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>880848488.3079293</v>
+        <v>937985083.6198103</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09328103158558487</v>
+        <v>0.1158064241996518</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02756012628882991</v>
+        <v>0.0287200605972212</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356213128.838881</v>
+        <v>2223185797.745646</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1193946714388889</v>
+        <v>0.1589082519892049</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01811815075680812</v>
+        <v>0.02547619492208981</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2510243347.842439</v>
+        <v>2479304761.822776</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1000606070283836</v>
+        <v>0.07940756918143012</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03228190530541572</v>
+        <v>0.03469206842075304</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1775874865.542827</v>
+        <v>2178362024.418848</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1062160411924118</v>
+        <v>0.07832549786242768</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03446411110346905</v>
+        <v>0.03845065382314498</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1607459614.738541</v>
+        <v>1398823867.757715</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1450095785465011</v>
+        <v>0.1215541593593656</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02659787210001868</v>
+        <v>0.02156856162447946</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1560840953.230601</v>
+        <v>1514584381.261475</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1589514820093036</v>
+        <v>0.149222669466946</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05302137312974418</v>
+        <v>0.04230237355221142</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2788469314.638385</v>
+        <v>1795525785.433345</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1330919140610351</v>
+        <v>0.1076298291192177</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04160860228422802</v>
+        <v>0.0287146018400057</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3955958151.785079</v>
+        <v>4157992248.176806</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1233544851201026</v>
+        <v>0.09842719365738767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02852161983604589</v>
+        <v>0.03046264568768786</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2327239051.600142</v>
+        <v>2708202772.509351</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1865960196434868</v>
+        <v>0.155002999766627</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02279895390058534</v>
+        <v>0.01905585689556539</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2242935677.486214</v>
+        <v>1681170402.898753</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09547335708208388</v>
+        <v>0.08496873340784886</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02339216572423468</v>
+        <v>0.03458235112555889</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1715464062.610808</v>
+        <v>1961385654.900286</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1619137781744934</v>
+        <v>0.1935089563445009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04585367240386275</v>
+        <v>0.05561460741908111</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5061459428.199105</v>
+        <v>4891317024.201225</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1521764537749423</v>
+        <v>0.1712509579666504</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04637059159887298</v>
+        <v>0.04798919560271487</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>38</v>
+      </c>
+      <c r="J46" t="n">
+        <v>64</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3589564777.894601</v>
+        <v>4694683256.433177</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1652385389717628</v>
+        <v>0.1858510502280225</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05536817358073434</v>
+        <v>0.03657772722725392</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28</v>
+      </c>
+      <c r="J47" t="n">
+        <v>63</v>
+      </c>
+      <c r="K47" t="n">
+        <v>160.2173193810655</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4221855560.502087</v>
+        <v>3784455128.218888</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0719197090631877</v>
+        <v>0.07292187292698782</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02996467359290656</v>
+        <v>0.03676265903052454</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>64</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1770413154.589742</v>
+        <v>1208685853.721139</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1648043109187512</v>
+        <v>0.1616247919307247</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03595181558104653</v>
+        <v>0.04161581873588091</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2748019390.648329</v>
+        <v>3352105261.26041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1419716804747462</v>
+        <v>0.1654498284550277</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05226237907140956</v>
+        <v>0.0529490947593681</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>62</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>966116474.7878768</v>
+        <v>941604652.7183789</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1265667140317515</v>
+        <v>0.159050792419638</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05438402615694596</v>
+        <v>0.04268366882249856</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5087293813.123267</v>
+        <v>4867944007.835775</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1122678250921127</v>
+        <v>0.08945259569238231</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05735882766470114</v>
+        <v>0.05806927185474905</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>51</v>
+      </c>
+      <c r="J52" t="n">
+        <v>64</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3620826477.548068</v>
+        <v>3520894954.486494</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1505724406837321</v>
+        <v>0.1417762746540114</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02690031154843127</v>
+        <v>0.03444022262227069</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3497263585.136602</v>
+        <v>3306606387.925855</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1405367717531811</v>
+        <v>0.1051743288529683</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04025148647432327</v>
+        <v>0.04104375371702305</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>63</v>
+      </c>
+      <c r="K54" t="n">
+        <v>137.7171876797376</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4870093233.607411</v>
+        <v>4691145063.619555</v>
       </c>
       <c r="F55" t="n">
-        <v>0.195137537519766</v>
+        <v>0.1637394030127584</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02071767434488903</v>
+        <v>0.02244018975980184</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>29</v>
+      </c>
+      <c r="J55" t="n">
+        <v>64</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1676992775.115993</v>
+        <v>1830829635.248174</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1073350176405404</v>
+        <v>0.1223067329478661</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03682969957851513</v>
+        <v>0.04933202524279821</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4429761109.716065</v>
+        <v>3418345334.946016</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1738623062099242</v>
+        <v>0.1195229198982337</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02654500363683587</v>
+        <v>0.02736672818353943</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>62</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1791022574.347169</v>
+        <v>1244063987.689062</v>
       </c>
       <c r="F58" t="n">
-        <v>0.13705750253583</v>
+        <v>0.1437015386962424</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02992843452836068</v>
+        <v>0.03605887633817986</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5210185115.032773</v>
+        <v>3260258140.335896</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1014142762965215</v>
+        <v>0.102257902724275</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04389218992985894</v>
+        <v>0.04111348344338422</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>63</v>
+      </c>
+      <c r="K59" t="n">
+        <v>120.2730661373782</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2879210304.687219</v>
+        <v>2377463294.050102</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2026366487241574</v>
+        <v>0.1286785720878044</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02861849506409379</v>
+        <v>0.03342568961969145</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2182892588.683956</v>
+        <v>2177632982.5205</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1204946130047758</v>
+        <v>0.1598387945020082</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02417241280470519</v>
+        <v>0.02391547446766823</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1649794965.3018</v>
+        <v>1417466326.618008</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1940275123776238</v>
+        <v>0.1238526596740867</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03137935367399047</v>
+        <v>0.04337283129531081</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5201975679.006103</v>
+        <v>5073044602.562583</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09771599993421304</v>
+        <v>0.09259530576851366</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02968930152014737</v>
+        <v>0.0454276945304214</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>31</v>
+      </c>
+      <c r="J63" t="n">
+        <v>64</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5037201262.382842</v>
+        <v>4778384437.35515</v>
       </c>
       <c r="F64" t="n">
-        <v>0.150147935513149</v>
+        <v>0.1280861223561593</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03174269834070464</v>
+        <v>0.03507800717716285</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>64</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5416771395.37056</v>
+        <v>5286537207.135354</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1266260850645702</v>
+        <v>0.1370106485417781</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0311234516264647</v>
+        <v>0.02122254574651619</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>51</v>
+      </c>
+      <c r="J65" t="n">
+        <v>63</v>
+      </c>
+      <c r="K65" t="n">
+        <v>191.5405379384434</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4070416997.759943</v>
+        <v>5215189485.433346</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1565498872906114</v>
+        <v>0.1278997292308353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03533298001689528</v>
+        <v>0.04527090231717761</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2891650539.674315</v>
+        <v>2162751488.457983</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08093651518767897</v>
+        <v>0.06662482238769264</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03475153156257337</v>
+        <v>0.05076952474902346</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5144699660.553952</v>
+        <v>3823989224.746556</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1386395449246814</v>
+        <v>0.1158790363763014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04977588305027566</v>
+        <v>0.03801522373297992</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>32</v>
+      </c>
+      <c r="J68" t="n">
+        <v>63</v>
+      </c>
+      <c r="K68" t="n">
+        <v>177.2057716159091</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1647677438.534002</v>
+        <v>1859221451.053869</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1624512224578111</v>
+        <v>0.1350915944145545</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0426792153659406</v>
+        <v>0.05788089074525884</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2752575977.074706</v>
+        <v>2930358713.527856</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06633135197506629</v>
+        <v>0.07304531084646577</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04401226757725581</v>
+        <v>0.04778665576185484</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3605968106.295028</v>
+        <v>4403424286.242745</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1760674968364361</v>
+        <v>0.1543070139841868</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02664916173675727</v>
+        <v>0.03005137664874342</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>52</v>
+      </c>
+      <c r="J71" t="n">
+        <v>64</v>
+      </c>
+      <c r="K71" t="n">
+        <v>192.5157011968514</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1806787209.014402</v>
+        <v>1994311350.074355</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08111750212661509</v>
+        <v>0.09489024155285765</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04557832071838246</v>
+        <v>0.03616065568406255</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2775215082.541899</v>
+        <v>3271103007.237459</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07055337058226813</v>
+        <v>0.08934572631966244</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05010884019820407</v>
+        <v>0.03415188516209475</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2872520441.948034</v>
+        <v>3000678973.43591</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1144344830105826</v>
+        <v>0.1279996320138917</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02318135145162125</v>
+        <v>0.0256851026809339</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>63</v>
+      </c>
+      <c r="K74" t="n">
+        <v>116.2004438398484</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2334051951.152486</v>
+        <v>2158736292.760604</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1379579327521364</v>
+        <v>0.1203828150152991</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02787039772667652</v>
+        <v>0.0309048671508503</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3331694579.629389</v>
+        <v>3995320818.331875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1183648987818974</v>
+        <v>0.1040286719852059</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02134517415585722</v>
+        <v>0.03102672692164294</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>29</v>
+      </c>
+      <c r="J76" t="n">
+        <v>64</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1644557176.087522</v>
+        <v>2277303564.675844</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1588171168184395</v>
+        <v>0.1369243392536139</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02234272367024175</v>
+        <v>0.02560406320136807</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3730973826.727859</v>
+        <v>4100132500.462711</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1213117842556913</v>
+        <v>0.136703092112562</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05374777087009093</v>
+        <v>0.05562625296044159</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>64</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1637407248.601021</v>
+        <v>1174861403.671068</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1663360285346029</v>
+        <v>0.1081973668391425</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03192367636549765</v>
+        <v>0.03191579296174137</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5184997328.372463</v>
+        <v>5261341794.492504</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07064935959697115</v>
+        <v>0.07575478497333123</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02674557634726265</v>
+        <v>0.03838072804064998</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>31</v>
+      </c>
+      <c r="J80" t="n">
+        <v>63</v>
+      </c>
+      <c r="K80" t="n">
+        <v>148.27256458283</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3759099007.923211</v>
+        <v>3266702555.618163</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1291153583034462</v>
+        <v>0.1372537648763854</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02664164701240052</v>
+        <v>0.0271414995171887</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29</v>
+      </c>
+      <c r="J81" t="n">
+        <v>63</v>
+      </c>
+      <c r="K81" t="n">
+        <v>109.9320213313904</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3866622211.710127</v>
+        <v>3840246480.982929</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1529097860499667</v>
+        <v>0.1505718584420133</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02584429480631857</v>
+        <v>0.01971752937073617</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>38</v>
+      </c>
+      <c r="J82" t="n">
+        <v>64</v>
+      </c>
+      <c r="K82" t="n">
+        <v>197.3684391527003</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2010974748.373707</v>
+        <v>2090123514.222954</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1410058744580746</v>
+        <v>0.1008384372466985</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04086305996988152</v>
+        <v>0.0400673416686638</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1969990390.976834</v>
+        <v>1588020791.978859</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08751024167241818</v>
+        <v>0.09745141958698034</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04751548858287159</v>
+        <v>0.03512319087337904</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2402287327.289118</v>
+        <v>3675971574.453801</v>
       </c>
       <c r="F85" t="n">
-        <v>0.126796620291589</v>
+        <v>0.1317395329326395</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04053620214685819</v>
+        <v>0.05504069849705418</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>64</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2621616760.981318</v>
+        <v>2029203604.016746</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1356026714396384</v>
+        <v>0.1629502692517873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02643039418636017</v>
+        <v>0.02305877086299593</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1109536333.963818</v>
+        <v>1191230428.884782</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1685664608018969</v>
+        <v>0.1731946350979412</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03107406527341329</v>
+        <v>0.02733710034577199</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3289803295.128979</v>
+        <v>3377868072.190712</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1264896853437907</v>
+        <v>0.176267786831187</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03106906229605293</v>
+        <v>0.03326980867928112</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2249767945.11086</v>
+        <v>2229938034.301458</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1058132607938455</v>
+        <v>0.1558975266872067</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0259876506970095</v>
+        <v>0.03356944743843408</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1437745086.00358</v>
+        <v>2161372174.339498</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1346721400871798</v>
+        <v>0.1048097361087414</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04633394777299536</v>
+        <v>0.03788529800378639</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1505176103.40504</v>
+        <v>1406342084.089362</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1671466115827006</v>
+        <v>0.1278736190349924</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04569521227491637</v>
+        <v>0.05096754223582733</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2424193225.647799</v>
+        <v>2005518589.735883</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07685912143557466</v>
+        <v>0.09714874034405663</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04607884045530586</v>
+        <v>0.03434826770397084</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3848518031.294245</v>
+        <v>4077906017.290782</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1313782032752318</v>
+        <v>0.1179470417319574</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05301645471180737</v>
+        <v>0.04205450200528985</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>64</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2278686883.837343</v>
+        <v>2284456938.342178</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1062870299985042</v>
+        <v>0.1481183821197464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0321676783118198</v>
+        <v>0.03490434156661713</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2541540575.705241</v>
+        <v>2081920335.837496</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1043088561320291</v>
+        <v>0.09175798579255696</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0520967088222315</v>
+        <v>0.05128029470758025</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2276084970.988443</v>
+        <v>2083515095.839313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1057779910792409</v>
+        <v>0.1217087514703784</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04438956792780607</v>
+        <v>0.04308740070046136</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4348536538.97562</v>
+        <v>4784670821.317057</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1192473714438041</v>
+        <v>0.1294547853998796</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0261925557963373</v>
+        <v>0.01859285678737426</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>63</v>
+      </c>
+      <c r="K97" t="n">
+        <v>185.3272618166397</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3105198161.837146</v>
+        <v>2474807818.8189</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1173194247980851</v>
+        <v>0.08509960379589622</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02586567144055048</v>
+        <v>0.02687720805774262</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2537662580.293999</v>
+        <v>3393483438.330448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1391307084188195</v>
+        <v>0.1461175254455369</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02756176039854684</v>
+        <v>0.02908120188538869</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3214588434.572301</v>
+        <v>4633376457.570815</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1232648593993386</v>
+        <v>0.1739620765033974</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02336935840858339</v>
+        <v>0.01715321098208214</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>63</v>
+      </c>
+      <c r="K100" t="n">
+        <v>176.1488478764224</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2318738286.273182</v>
+        <v>2761176270.255413</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1394216611898311</v>
+        <v>0.1404422561951901</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04844564073341256</v>
+        <v>0.05692766195007232</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
